--- a/chap07-express/extensions/uploads/엑셀연습1.xlsx
+++ b/chap07-express/extensions/uploads/엑셀연습1.xlsx
@@ -54,22 +54,22 @@
     <t xml:space="preserve">password</t>
   </si>
   <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">박영수</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">김길동</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">박수진</t>
+    <t xml:space="preserve">user01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">김현준</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">김철수</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이호성</t>
   </si>
 </sst>
 </file>
@@ -286,7 +286,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
